--- a/Comparative RunTime.xlsx
+++ b/Comparative RunTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd6241\Documents\GitHub\ANM_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D51BD4-4388-4C9A-A7F8-DAE986920573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81040C1A-7A90-4060-87E6-B74EFFCE5B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="2355" windowWidth="20730" windowHeight="11160" xr2:uid="{2F000B38-EEB9-41BA-A0B5-C92267F60A6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>write(alphabetic sort)</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Média</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -78,6 +75,69 @@
   </si>
   <si>
     <t>999,9</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>163,52</t>
+  </si>
+  <si>
+    <t>528,46</t>
+  </si>
+  <si>
+    <t>589,54</t>
+  </si>
+  <si>
+    <t>535,54</t>
+  </si>
+  <si>
+    <t>416,47</t>
+  </si>
+  <si>
+    <t>170,69</t>
+  </si>
+  <si>
+    <t>160,14</t>
+  </si>
+  <si>
+    <t>533,17</t>
+  </si>
+  <si>
+    <t>617,55</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>362,36</t>
+  </si>
+  <si>
+    <t>292,98</t>
+  </si>
+  <si>
+    <t>72,06</t>
+  </si>
+  <si>
+    <t>77,62</t>
+  </si>
+  <si>
+    <t>268,62</t>
+  </si>
+  <si>
+    <t>330,85</t>
+  </si>
+  <si>
+    <t>357,32</t>
+  </si>
+  <si>
+    <t>282,36</t>
+  </si>
+  <si>
+    <t>69,11</t>
   </si>
 </sst>
 </file>
@@ -173,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -193,6 +253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DE17EF-9360-4B4A-813B-16579B3AFEF2}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -739,18 +802,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -787,11 +850,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -801,12 +864,163 @@
       <c r="J12" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A18:J18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comparative RunTime.xlsx
+++ b/Comparative RunTime.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd6241\Documents\GitHub\ANM_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81040C1A-7A90-4060-87E6-B74EFFCE5B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92944E3-8DB8-45DC-9E26-511D1328DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="2355" windowWidth="20730" windowHeight="11160" xr2:uid="{2F000B38-EEB9-41BA-A0B5-C92267F60A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$L$3:$O$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -233,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -256,6 +259,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DE17EF-9360-4B4A-813B-16579B3AFEF2}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +607,7 @@
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -606,7 +621,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -635,8 +650,12 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -667,8 +686,12 @@
       <c r="J3" s="4">
         <v>2.9861111111111113E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -699,8 +722,12 @@
       <c r="J4" s="4">
         <v>2.9861111111111113E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -731,8 +758,12 @@
       <c r="J5" s="4">
         <v>3.1944444444444449E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -772,8 +803,12 @@
         <f>AVERAGE(J3:J5)</f>
         <v>3.0555555555555558E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>B6-D6</f>
         <v>6.4351851851851855E-2</v>
@@ -786,8 +821,11 @@
         <f>H6-J6</f>
         <v>6.3194444444444442E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7/B5</f>
         <v>0.68137254901960786</v>
@@ -800,8 +838,11 @@
         <f>H7/H5</f>
         <v>0.67407407407407405</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -815,7 +856,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -845,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -863,7 +904,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -877,7 +918,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
         <v>0</v>
@@ -907,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>

--- a/Comparative RunTime.xlsx
+++ b/Comparative RunTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd6241\Documents\GitHub\ANM_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92944E3-8DB8-45DC-9E26-511D1328DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B1D3B-0380-4847-ADD1-E960FF04E14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="2355" windowWidth="20730" windowHeight="11160" xr2:uid="{2F000B38-EEB9-41BA-A0B5-C92267F60A6D}"/>
   </bookViews>
@@ -249,6 +249,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,18 +271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,7 +590,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,18 +608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -650,10 +650,10 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -686,10 +686,10 @@
       <c r="J3" s="4">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -722,10 +722,10 @@
       <c r="J4" s="4">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -758,10 +758,10 @@
       <c r="J5" s="4">
         <v>3.1944444444444449E-2</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -803,10 +803,10 @@
         <f>AVERAGE(J3:J5)</f>
         <v>3.0555555555555558E-2</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -821,9 +821,9 @@
         <f>H6-J6</f>
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -838,23 +838,23 @@
         <f>H7/H5</f>
         <v>0.67407407407407405</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -905,18 +905,18 @@
       <c r="J12" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -981,18 +981,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
